--- a/data/trans_bre/P27F_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27F_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,137 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-44,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.009523575654171897</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6904662238387618</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.01002577619301694</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.4849154154579436</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 3,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,57; 1,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.922527257918151</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.993206026994446</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.752540886983788</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.470597154638523</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-54,43%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>329,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-28,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,56; 1,07</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 6,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 2,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-89,51; 254,4</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.236296849948063</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.79576347643751</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.037365618876509</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.544292706587884</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.351828645171732</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3352321188772645</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>29,03%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-28,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.564546424238224</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1505932071282698</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.048094117448875</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.902745279678367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 2,39</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 3,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 1,44</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; inf</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.069243219618544</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.651375005822713</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.056174661063961</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>2.159862256251603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +749,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-21,93%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>117,17%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>28,64%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.3626620299031281</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.243716878924394</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3088317664741377</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2902594007308182</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.207087021831812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 2,21</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 5,3</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 2,4</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-87,78; 182,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-74,17; 527,3</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.697851839952409</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3928424710266369</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.602576850918934</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.391423534906977</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.402083506782386</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.617506332756102</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>91,43%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>257,08%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-9,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 4,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 2,47</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-67,15; 744,46</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-52,81; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-88,62; 344,67</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.8297515349339192</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.914394258007285</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3718025555799765</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.219269239768536</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.226448066191652</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2465240036218566</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-48,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>442,04%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.177110249216173</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.6994914109657595</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.796626435270169</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.8778078941064855</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.7536038607413639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 5,29</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 0,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 16,04</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.214851796452178</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.394873260297004</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.27697751338223</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.825616099937902</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>4.695096991250881</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +905,231 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>14,73%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>134,1%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>34,14%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.564185608558367</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.798902561130376</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1484070461044408</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.9143451632110575</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>2.633893812882205</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.07121239004490314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 1,33</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 2,28</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 3,3</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-47,99; 126,43</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>6,27; 496,07</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-39,42; 294,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.473855075268654</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.1025624109434478</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.431988143925238</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.6714524508786234</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.5142917022313677</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8892052629578121</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.744050416284308</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.369730963340578</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.470898841998009</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>7.444556932927489</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="n">
+        <v>3.841551269845149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1.863354560180659</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.4052722614296216</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>2.784659121551318</v>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.4837212283299148</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>3.014388451645423</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.5407844648087546</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-2.902824284444271</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.8179134860567995</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>5.286552937877786</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.8607986499446746</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>12.46476509914962</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.2561522362047857</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.243708066576985</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3461483951424572</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.1473469305539694</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>1.346274114695111</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2233293900737924</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.257943196042844</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2227528771729182</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.7472410326544785</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.4799279480366391</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.03364178644313887</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.4418349403788611</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.334854952015052</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.323879634010799</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.369807024006144</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1.26430203924642</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>4.859754589401934</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.94560721474002</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1138,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
